--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail15 Features.xlsx
@@ -4434,7 +4434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,29 +4445,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4488,115 +4486,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4613,72 +4601,66 @@
         <v>1.436459134435383e-06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.9520033498023528</v>
+        <v>4.691797477973055e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.3378183258519676</v>
+        <v>1.350015604832124e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.691797477973055e-06</v>
+        <v>-0.01697231595753167</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.350015604832124e-05</v>
+        <v>0.1421362579849293</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.01697231595753167</v>
+        <v>0.02048569599272211</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1421362579849293</v>
+        <v>1.805768719637461</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02048569599272211</v>
+        <v>1.934247141665266</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.756863840961541</v>
+        <v>4.010100226557721</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.934247141665266</v>
+        <v>1.717032173458231e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.010100226557721</v>
+        <v>40814291.2115569</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.717032173458231e-14</v>
+        <v>2.85810801849514e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>40814291.2115569</v>
+        <v>28.60243127065313</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.85810801849514e-06</v>
+        <v>0.0001260984100046716</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>28.60243127065313</v>
+        <v>8.522053086351448</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001260984100046716</v>
+        <v>1.25142796767497</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.522053086351448</v>
+        <v>0.00915794605448236</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.25142796767497</v>
+        <v>3.14547669722081</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.00915794605448236</v>
+        <v>0.9570814771658612</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.14547669722081</v>
+        <v>1.658178172391601</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9570814771658612</v>
+        <v>28</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.658178172391601</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3304861973084627</v>
       </c>
     </row>
@@ -4693,72 +4675,66 @@
         <v>1.44590743338361e-06</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.9772639481051165</v>
+        <v>4.691797477973055e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.3220331519655861</v>
+        <v>1.347251158629829e-05</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.691797477973055e-06</v>
+        <v>-0.02145966299121553</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.347251158629829e-05</v>
+        <v>0.1356213352237312</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02145966299121553</v>
+        <v>0.01884791263212093</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1356213352237312</v>
+        <v>1.815395776221601</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01884791263212093</v>
+        <v>1.711130459493226</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.771538868164209</v>
+        <v>4.080171541930352</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.711130459493226</v>
+        <v>2.400301540556809e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.080171541930352</v>
+        <v>29316494.94316357</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.400301540556809e-14</v>
+        <v>3.986689502986171e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>29316494.94316357</v>
+        <v>20.62955662910953</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.986689502986171e-06</v>
+        <v>0.0001583863657705492</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>20.62955662910953</v>
+        <v>7.9177095181127</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001583863657705492</v>
+        <v>1.813719106783991</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.9177095181127</v>
+        <v>0.009929260912157756</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.813719106783991</v>
+        <v>3.151669220021778</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009929260912157756</v>
+        <v>0.9574319671455059</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.151669220021778</v>
+        <v>1.65620670751688</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9574319671455059</v>
+        <v>28</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.65620670751688</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2724507392328413</v>
       </c>
     </row>
@@ -4773,72 +4749,66 @@
         <v>1.451857814650708e-06</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.022151870853141</v>
+        <v>4.691797477973055e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.2615157208076586</v>
+        <v>1.343768465618236e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.691797477973055e-06</v>
+        <v>-0.02664507527599411</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.343768465618236e-05</v>
+        <v>0.1282109543897897</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02664507527599411</v>
+        <v>0.0171417284485578</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1282109543897897</v>
+        <v>1.806762191168061</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0171417284485578</v>
+        <v>1.782940477820775</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.759704061918596</v>
+        <v>3.992422542541673</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.782940477820775</v>
+        <v>2.506972964844279e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.992422542541673</v>
+        <v>28231526.64654892</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.506972964844279e-14</v>
+        <v>4.129847654233273e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>28231526.64654892</v>
+        <v>19.98105328129174</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.129847654233273e-06</v>
+        <v>0.0001675925991409089</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>19.98105328129174</v>
+        <v>9.009988275917904</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001675925991409089</v>
+        <v>1.472894845412669</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.009988275917904</v>
+        <v>0.01360514855059551</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.472894845412669</v>
+        <v>2.971831929718454</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01360514855059551</v>
+        <v>0.9580745463317695</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.971831929718454</v>
+        <v>1.691887198026905</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9580745463317695</v>
+        <v>28</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.691887198026905</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2117284756873828</v>
       </c>
     </row>
@@ -4853,72 +4823,66 @@
         <v>1.451691201772302e-06</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.087529113755296</v>
+        <v>4.691797477973055e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.1365305322276811</v>
+        <v>1.339482746913763e-05</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.691797477973055e-06</v>
+        <v>-0.03246463205237657</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.339482746913763e-05</v>
+        <v>0.1197339504095519</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03246463205237657</v>
+        <v>0.01538245206424771</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1197339504095519</v>
+        <v>1.808046095777235</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01538245206424771</v>
+        <v>1.823486774387565</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.768404049634684</v>
+        <v>3.949744979653636</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.823486774387565</v>
+        <v>2.561442064078394e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.949744979653636</v>
+        <v>27611934.14894589</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.561442064078394e-14</v>
+        <v>4.227044607079368e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>27611934.14894589</v>
+        <v>19.52891859980171</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.227044607079368e-06</v>
+        <v>0.0001567975593859333</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>19.52891859980171</v>
+        <v>9.814555027036734</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001567975593859333</v>
+        <v>1.210685119592448</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.814555027036734</v>
+        <v>0.01510360179803838</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.210685119592448</v>
+        <v>2.848857477814593</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01510360179803838</v>
+        <v>0.9597944411634355</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.848857477814593</v>
+        <v>1.679465428441095</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9597944411634355</v>
+        <v>28</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.679465428441095</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1930534634499794</v>
       </c>
     </row>
@@ -4933,72 +4897,66 @@
         <v>1.441357667296897e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.172900916661385</v>
+        <v>4.691797477973055e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.07490154728311538</v>
+        <v>1.33428647069873e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.691797477973055e-06</v>
+        <v>-0.03956000955236532</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.33428647069873e-05</v>
+        <v>0.1077620701046721</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03956000955236532</v>
+        <v>0.01316622466196886</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1077620701046721</v>
+        <v>1.806295396022583</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01316622466196886</v>
+        <v>1.749415932064953</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.763769112338476</v>
+        <v>3.950603727796729</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.749415932064953</v>
+        <v>2.560328616768048e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.950603727796729</v>
+        <v>27613978.78729269</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.560328616768048e-14</v>
+        <v>4.220297188202835e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>27613978.78729269</v>
+        <v>19.52332051374219</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.220297188202835e-06</v>
+        <v>0.0001554021025720607</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>19.52332051374219</v>
+        <v>10.22655711608731</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001554021025720607</v>
+        <v>1.148821609241963</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.22655711608731</v>
+        <v>0.01625233579989223</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.148821609241963</v>
+        <v>2.669508556357778</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01625233579989223</v>
+        <v>0.9586784813439784</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.669508556357778</v>
+        <v>1.675046822929108</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9586784813439784</v>
+        <v>32</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.675046822929108</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1925115802629392</v>
       </c>
     </row>
@@ -5013,72 +4971,66 @@
         <v>1.413817906035061e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.272623443620488</v>
+        <v>4.720139890430574e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.3859396323052868</v>
+        <v>1.328014030498744e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.720139890430574e-06</v>
+        <v>-0.0484512064489124</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.328014030498744e-05</v>
+        <v>0.08847455201183504</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0484512064489124</v>
+        <v>0.01016057463195771</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.08847455201183504</v>
+        <v>1.805615698387023</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01016057463195771</v>
+        <v>1.757196708140873</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.758509152006745</v>
+        <v>3.934330948250081</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.757196708140873</v>
+        <v>2.581551958779663e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.934330948250081</v>
+        <v>27271285.80915323</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.581551958779663e-14</v>
+        <v>4.26615232529621e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>27271285.80915323</v>
+        <v>19.19959644071623</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.26615232529621e-06</v>
+        <v>0.0001547164444163367</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>19.19959644071623</v>
+        <v>9.528301260872372</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001547164444163367</v>
+        <v>1.190901698481601</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.528301260872372</v>
+        <v>0.01404647776910798</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.190901698481601</v>
+        <v>2.74693957126136</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01404647776910798</v>
+        <v>0.9593535626036451</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.74693957126136</v>
+        <v>1.692665755902894</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9593535626036451</v>
+        <v>32</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.692665755902894</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1845478620925276</v>
       </c>
     </row>
@@ -5093,72 +5045,66 @@
         <v>1.36183660958133e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.365971445210512</v>
+        <v>4.744340423948822e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.7421776448901394</v>
+        <v>1.320670188060736e-05</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.744340423948822e-06</v>
+        <v>-0.05639765376139429</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.320670188060736e-05</v>
+        <v>0.07459647606101989</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05639765376139429</v>
+        <v>0.008743885709310114</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.07459647606101989</v>
+        <v>1.800529508794104</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.008743885709310114</v>
+        <v>1.88354915089396</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.756384986773379</v>
+        <v>3.822756827159187</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.88354915089396</v>
+        <v>2.734445699207299e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.822756827159187</v>
+        <v>25402954.02585932</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.734445699207299e-14</v>
+        <v>4.57599656004621e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>25402954.02585932</v>
+        <v>17.64565354426053</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.57599656004621e-06</v>
+        <v>0.0001712370545872026</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>17.64565354426053</v>
+        <v>8.575235724764767</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001712370545872026</v>
+        <v>1.449469067314554</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.575235724764767</v>
+        <v>0.01259185991303827</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.449469067314554</v>
+        <v>2.830030333409322</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01259185991303827</v>
+        <v>0.959574118246792</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.830030333409322</v>
+        <v>1.664324307398583</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.959574118246792</v>
+        <v>25</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.664324307398583</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1654026201724099</v>
       </c>
     </row>
@@ -5173,72 +5119,66 @@
         <v>1.292856459607916e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.440693985387614</v>
+        <v>4.755954015940998e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.075709019114703</v>
+        <v>1.312875779827269e-05</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.755954015940998e-06</v>
+        <v>-0.06089971427354683</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.312875779827269e-05</v>
+        <v>0.07664937713315559</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.06089971427354683</v>
+        <v>0.009584206299135433</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.07664937713315559</v>
+        <v>1.804394643059025</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.009584206299135433</v>
+        <v>1.792598178921311</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.760465973716862</v>
+        <v>3.793627235220855</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.792598178921311</v>
+        <v>2.776600130144036e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.793627235220855</v>
+        <v>24987276.48298172</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.776600130144036e-14</v>
+        <v>4.644656078192249e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>24987276.48298172</v>
+        <v>17.33609124887504</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.644656078192249e-06</v>
+        <v>0.0001885417856980378</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>17.33609124887504</v>
+        <v>9.371755206860643</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001885417856980378</v>
+        <v>1.403332018295496</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.371755206860643</v>
+        <v>0.0165595865107248</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.403332018295496</v>
+        <v>2.734856645379996</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0165595865107248</v>
+        <v>0.9597347703338966</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.734856645379996</v>
+        <v>1.663708802669904</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9597347703338966</v>
+        <v>14</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.663708802669904</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.158885624338387</v>
       </c>
     </row>
@@ -5253,72 +5193,66 @@
         <v>1.211817247402977e-06</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.488702292723585</v>
+        <v>4.760451751413684e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.332373584545624</v>
+        <v>1.304958438987647e-05</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.760451751413684e-06</v>
+        <v>-0.06546637786684911</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.304958438987647e-05</v>
+        <v>0.08127301223691108</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06546637786684911</v>
+        <v>0.01089165804255418</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08127301223691108</v>
+        <v>1.798854807656828</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01089165804255418</v>
+        <v>1.771016754474875</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.745441017053722</v>
+        <v>3.778412549677022</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.771016754474875</v>
+        <v>2.799006446193733e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.778412549677022</v>
+        <v>24886046.20157455</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.799006446193733e-14</v>
+        <v>4.667115962914475e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>24886046.20157455</v>
+        <v>17.33467504462158</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.667115962914475e-06</v>
+        <v>0.0001797778650217848</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>17.33467504462158</v>
+        <v>10.92226799258254</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001797778650217848</v>
+        <v>1.147503511755465</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.92226799258254</v>
+        <v>0.02144676905771135</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.147503511755465</v>
+        <v>2.600470007524705</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02144676905771135</v>
+        <v>0.9591288107043905</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.600470007524705</v>
+        <v>1.697941229827738</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9591288107043905</v>
+        <v>17</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.697941229827738</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1693720392145315</v>
       </c>
     </row>
@@ -5333,72 +5267,66 @@
         <v>1.121421293697418e-06</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.494399912516808</v>
+        <v>4.671229309561172e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1.412935529104932</v>
+        <v>1.297079540061567e-05</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.671229309561172e-06</v>
+        <v>-0.06942620942488528</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.297079540061567e-05</v>
+        <v>0.08795096395204313</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06942620942488528</v>
+        <v>0.01255444137617407</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08795096395204313</v>
+        <v>1.802494346472513</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01255444137617407</v>
+        <v>1.857550801949883</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.74919591101476</v>
+        <v>3.760110439468043</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.857550801949883</v>
+        <v>2.826320749433611e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.760110439468043</v>
+        <v>24993064.7196169</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.826320749433611e-14</v>
+        <v>4.66477752265644e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>24993064.7196169</v>
+        <v>17.6547053799421</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.66477752265644e-06</v>
+        <v>0.0001703766860410234</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>17.6547053799421</v>
+        <v>10.83383352570311</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001703766860410234</v>
+        <v>1.126942896174581</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.83383352570311</v>
+        <v>0.01999744368139456</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.126942896174581</v>
+        <v>2.562440457079521</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01999744368139456</v>
+        <v>0.9591639907699283</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.562440457079521</v>
+        <v>1.693930745079513</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9591639907699283</v>
+        <v>16</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.693930745079513</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1749803827717411</v>
       </c>
     </row>
@@ -5413,72 +5341,66 @@
         <v>1.028088837393322e-06</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.451930569595476</v>
+        <v>4.396172274752345e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1.248428360784619</v>
+        <v>1.289473575233853e-05</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.396172274752345e-06</v>
+        <v>-0.07128892473175055</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.289473575233853e-05</v>
+        <v>0.0913968847650124</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.07128892473175055</v>
+        <v>0.01342266770148234</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.0913968847650124</v>
+        <v>1.794400170525982</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01342266770148234</v>
+        <v>1.762114067048774</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.741704957352103</v>
+        <v>3.755171691831928</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.762114067048774</v>
+        <v>2.833759910710603e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.755171691831928</v>
+        <v>25098182.86722074</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.833759910710603e-14</v>
+        <v>4.635666294807624e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>25098182.86722074</v>
+        <v>17.85038594939062</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.635666294807624e-06</v>
+        <v>0.0001607848331475514</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>17.85038594939062</v>
+        <v>9.398457556648951</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001607848331475514</v>
+        <v>1.218612793302651</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.398457556648951</v>
+        <v>0.01420228581130535</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.218612793302651</v>
+        <v>2.756248118316768</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01420228581130535</v>
+        <v>0.9590452313835014</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.756248118316768</v>
+        <v>1.685147500270208</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9590452313835014</v>
+        <v>20</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.685147500270208</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1720074597933304</v>
       </c>
     </row>
@@ -5493,72 +5415,66 @@
         <v>9.444010586909738e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.403677067719633</v>
+        <v>3.95958890866746e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.040255853428267</v>
+        <v>1.282515689027991e-05</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.95958890866746e-06</v>
+        <v>-0.06989690895782452</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.282515689027991e-05</v>
+        <v>0.08572820938527209</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06989690895782452</v>
+        <v>0.01222292128806611</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.08572820938527209</v>
+        <v>1.785034206996885</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01222292128806611</v>
+        <v>1.686997378068542</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.73338469022006</v>
+        <v>3.693693635143256</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.686997378068542</v>
+        <v>2.928875469450952e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.693693635143256</v>
+        <v>24172369.86847333</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.928875469450952e-14</v>
+        <v>4.809163349262947e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>24172369.86847333</v>
+        <v>17.1135208552438</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.809163349262947e-06</v>
+        <v>0.0001609039912435334</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>17.1135208552438</v>
+        <v>8.422883934254774</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001609039912435334</v>
+        <v>1.386151210674006</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.422883934254774</v>
+        <v>0.01141532943824907</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.386151210674006</v>
+        <v>2.869075487637744</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01141532943824907</v>
+        <v>0.9590310354746029</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.869075487637744</v>
+        <v>1.691866640723343</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9590310354746029</v>
+        <v>20</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.691866640723343</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1723578197784568</v>
       </c>
     </row>
@@ -5573,72 +5489,66 @@
         <v>8.723332606682556e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.370667490856731</v>
+        <v>3.575590588307141e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.8982474430846445</v>
+        <v>1.276251742376808e-05</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.575590588307141e-06</v>
+        <v>-0.06815702749975376</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.276251742376808e-05</v>
+        <v>0.08034500045941705</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06815702749975376</v>
+        <v>0.01109073537078625</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.08034500045941705</v>
+        <v>1.743880049543634</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01109073537078625</v>
+        <v>1.650822004007207</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.683220726125316</v>
+        <v>3.720069477441895</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.650822004007207</v>
+        <v>2.887490384853775e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.720069477441895</v>
+        <v>24858549.16859344</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.887490384853775e-14</v>
+        <v>4.627004044648731e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>24858549.16859344</v>
+        <v>17.84317368635551</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.627004044648731e-06</v>
+        <v>0.000166988228642901</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>17.84317368635551</v>
+        <v>8.856372466921457</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000166988228642901</v>
+        <v>1.37345772498203</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.856372466921457</v>
+        <v>0.01309777736624789</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.37345772498203</v>
+        <v>2.856928680748234</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01309777736624789</v>
+        <v>0.9567123884427171</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.856928680748234</v>
+        <v>1.704745051895799</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9567123884427171</v>
+        <v>21</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.704745051895799</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1795568180805677</v>
       </c>
     </row>
@@ -5653,72 +5563,66 @@
         <v>8.095793202012384e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.353617993379867</v>
+        <v>3.254186166456435e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.8277694434582745</v>
+        <v>1.270585839177953e-05</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.254186166456435e-06</v>
+        <v>-0.06684212209349319</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.270585839177953e-05</v>
+        <v>0.07605134265667864</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06684212209349319</v>
+        <v>0.01024371799470239</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.07605134265667864</v>
+        <v>1.742629039942047</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01024371799470239</v>
+        <v>1.659152167208663</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.679534894261971</v>
+        <v>3.676878037479479</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.659152167208663</v>
+        <v>2.835667380021831e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.676878037479479</v>
+        <v>26893602.69065684</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.835667380021831e-14</v>
+        <v>4.309596591622955e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>26893602.69065684</v>
+        <v>20.50941422400265</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.309596591622955e-06</v>
+        <v>0.0001685117335960013</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>20.50941422400265</v>
+        <v>10.73862307107648</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001685117335960013</v>
+        <v>1.142461460004655</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.73862307107648</v>
+        <v>0.01943244038558001</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.142461460004655</v>
+        <v>2.661055840768626</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01943244038558001</v>
+        <v>0.956667350109323</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.661055840768626</v>
+        <v>1.741721706759376</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.956667350109323</v>
+        <v>21</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.741721706759376</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2093932691473745</v>
       </c>
     </row>
@@ -5733,72 +5637,66 @@
         <v>7.542564319944732e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.349142197868284</v>
+        <v>2.995542229588337e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.8200678404178041</v>
+        <v>1.265392379485436e-05</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.995542229588337e-06</v>
+        <v>-0.06620600670940406</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.265392379485436e-05</v>
+        <v>0.07294233921507697</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06620600670940406</v>
+        <v>0.009697570670733176</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.07294233921507697</v>
+        <v>1.73567388517472</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.009697570670733176</v>
+        <v>1.703491589526041</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.668981115981101</v>
+        <v>3.915124760839497</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.703491589526041</v>
+        <v>2.501050865407592e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.915124760839497</v>
+        <v>30722178.52042403</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.501050865407592e-14</v>
+        <v>3.76963342692397e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>30722178.52042403</v>
+        <v>23.60622494284608</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.76963342692397e-06</v>
+        <v>0.0001510717212369103</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>23.60622494284608</v>
+        <v>9.934943724866244</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001510717212369103</v>
+        <v>1.122642688985701</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.934943724866244</v>
+        <v>0.01491124823816288</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.122642688985701</v>
+        <v>2.821780397391358</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01491124823816288</v>
+        <v>0.9568781118813919</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.821780397391358</v>
+        <v>1.72523501939416</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9568781118813919</v>
+        <v>24</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.72523501939416</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2233515841758768</v>
       </c>
     </row>
@@ -5813,72 +5711,66 @@
         <v>7.045358491940355e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.352522385209842</v>
+        <v>2.794684079461775e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.8598538459652794</v>
+        <v>1.260573553108767e-05</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.794684079461775e-06</v>
+        <v>-0.06612083022795828</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.260573553108767e-05</v>
+        <v>0.07206754872137544</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06612083022795828</v>
+        <v>0.009561735266474808</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.07206754872137544</v>
+        <v>1.775177342774594</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.009561735266474808</v>
+        <v>1.719362257219494</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.714621843798583</v>
+        <v>3.861474468486914</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.719362257219494</v>
+        <v>2.57103151988337e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.861474468486914</v>
+        <v>29949161.5775528</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.57103151988337e-14</v>
+        <v>3.91743941303863e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>29949161.5775528</v>
+        <v>23.06092581650225</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.91743941303863e-06</v>
+        <v>0.0001254792504424413</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>23.06092581650225</v>
+        <v>7.426879709036402</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001254792504424413</v>
+        <v>1.412673740569943</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.426879709036402</v>
+        <v>0.006921252532321837</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.412673740569943</v>
+        <v>3.197163484161476</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.006921252532321837</v>
+        <v>0.9549316476593215</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.197163484161476</v>
+        <v>1.661916271359647</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9549316476593215</v>
+        <v>23</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.661916271359647</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.242286041832407</v>
       </c>
     </row>
@@ -6255,7 +6147,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.598336534492236</v>
+        <v>1.552480313190106</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.930272776981118</v>
@@ -6344,7 +6236,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.601745086920724</v>
+        <v>1.552954167887333</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.017173176712295</v>
@@ -6433,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.597153742035066</v>
+        <v>1.545904795963006</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.052747404001362</v>
@@ -6522,7 +6414,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.610750510119128</v>
+        <v>1.551777330391648</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.810710097854285</v>
@@ -6611,7 +6503,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.618261416435433</v>
+        <v>1.552148754614042</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.766216609150697</v>
@@ -6700,7 +6592,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.602743306964072</v>
+        <v>1.533275930365986</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.788289022236146</v>
@@ -6789,7 +6681,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.61153763879842</v>
+        <v>1.537253389475186</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.716254109573353</v>
@@ -6878,7 +6770,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.604272341615422</v>
+        <v>1.531436924410584</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.774162939844476</v>
@@ -6967,7 +6859,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.613531823216018</v>
+        <v>1.538710973395849</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.765089169919658</v>
@@ -7056,7 +6948,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.600691694822784</v>
+        <v>1.527475466770125</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.103443504223912</v>
@@ -7145,7 +7037,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.597565544770043</v>
+        <v>1.527864840657537</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.855224921623956</v>
@@ -7234,7 +7126,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.602519584869054</v>
+        <v>1.53129624270313</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.862799680400161</v>
@@ -7323,7 +7215,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.600663622755896</v>
+        <v>1.52916761527809</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.890551028640621</v>
@@ -7412,7 +7304,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.597923814227715</v>
+        <v>1.537900713734021</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.653615275450063</v>
@@ -7501,7 +7393,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.60840091179867</v>
+        <v>1.557557412145139</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.049806207129175</v>
@@ -7590,7 +7482,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.632152715968572</v>
+        <v>1.568071559377085</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.819232555243732</v>
@@ -7679,7 +7571,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.627563596546476</v>
+        <v>1.564141762985661</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.700031535604093</v>
@@ -7768,7 +7660,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.642754932965287</v>
+        <v>1.578634350678251</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.753183181026006</v>
@@ -7857,7 +7749,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.654118072678248</v>
+        <v>1.589372967534247</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.98331977838227</v>
@@ -7946,7 +7838,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.656126430380153</v>
+        <v>1.592983301462108</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.711695066634823</v>
@@ -8035,7 +7927,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.664974599089091</v>
+        <v>1.604829172134419</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.74926843553124</v>
@@ -8124,7 +8016,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.667426602152782</v>
+        <v>1.610619153522727</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.646687580663024</v>
@@ -8213,7 +8105,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.674163728999238</v>
+        <v>1.619560114772793</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.994803571651465</v>
@@ -8302,7 +8194,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.686636840469566</v>
+        <v>1.628320054455022</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.670770861944523</v>
@@ -8391,7 +8283,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.69551596790642</v>
+        <v>1.633310685538369</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.323075022540822</v>
@@ -8480,7 +8372,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.696617315448332</v>
+        <v>1.62319054874643</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.198008495790183</v>
@@ -8569,7 +8461,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.691944607286772</v>
+        <v>1.622091171924647</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.822308692312538</v>
@@ -8658,7 +8550,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.67903476057501</v>
+        <v>1.614616470098884</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.282750811886555</v>
@@ -8747,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.70344539375019</v>
+        <v>1.637342172911652</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.541180322348375</v>
@@ -8836,7 +8728,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.686070623711923</v>
+        <v>1.623235056774114</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.001563660442213</v>
@@ -8925,7 +8817,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.692184386648081</v>
+        <v>1.631881606129535</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.709082708773422</v>
@@ -9014,7 +8906,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.683629325370417</v>
+        <v>1.63046562591763</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.776147017128825</v>
@@ -9103,7 +8995,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.685124826870693</v>
+        <v>1.63240089722871</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.78216775968482</v>
@@ -9192,7 +9084,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.682654185484016</v>
+        <v>1.627589109080403</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.950596074548165</v>
@@ -9281,7 +9173,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.684894717226151</v>
+        <v>1.625508216031348</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.687812442771526</v>
@@ -9370,7 +9262,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.675800206264368</v>
+        <v>1.612435569976265</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.079222560020181</v>
@@ -9459,7 +9351,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.692589405423012</v>
+        <v>1.619861365989154</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.778780092228665</v>
@@ -9548,7 +9440,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.686487761839177</v>
+        <v>1.612449987061129</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.797189324999124</v>
@@ -9637,7 +9529,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.685433953140766</v>
+        <v>1.605030909666899</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.68927766216367</v>
@@ -9726,7 +9618,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.67737478696645</v>
+        <v>1.602410588733657</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.829248211627311</v>
@@ -9815,7 +9707,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.676657105226616</v>
+        <v>1.607105805833596</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.184845189741485</v>
@@ -9904,7 +9796,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.660158467832026</v>
+        <v>1.591881693738521</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.725247907579934</v>
@@ -9993,7 +9885,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.632932619454348</v>
+        <v>1.573769577818709</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.70057722562523</v>
@@ -10082,7 +9974,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.615324931515421</v>
+        <v>1.558305772639006</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.780577736131369</v>
@@ -10171,7 +10063,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.604274540351847</v>
+        <v>1.547846221973102</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.658275438008077</v>
@@ -10260,7 +10152,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.596378116495436</v>
+        <v>1.540332149061056</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.49830099665386</v>
@@ -10349,7 +10241,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.604737405552106</v>
+        <v>1.535877760895254</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.721537575721479</v>
@@ -10438,7 +10330,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.591662114202949</v>
+        <v>1.518583213645171</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.641202151514091</v>
@@ -10527,7 +10419,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.591317668546881</v>
+        <v>1.519576349490057</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.61070658654577</v>
@@ -10616,7 +10508,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.596037538604165</v>
+        <v>1.518095058259991</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.548070705718108</v>
@@ -10705,7 +10597,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.593016531197283</v>
+        <v>1.515430270373836</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.513016097398984</v>
@@ -10794,7 +10686,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.578085069119903</v>
+        <v>1.511641791343715</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.559998798526202</v>
@@ -10883,7 +10775,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.57777573115071</v>
+        <v>1.515990639907921</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.628891435676211</v>
@@ -10972,7 +10864,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.572565973613304</v>
+        <v>1.515060294250389</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.54797016391544</v>
@@ -11061,7 +10953,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.57715104724092</v>
+        <v>1.50548468346246</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.627589803993268</v>
@@ -11150,7 +11042,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.576195141501317</v>
+        <v>1.488963033525</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.452868300624594</v>
@@ -11239,7 +11131,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.592589386098117</v>
+        <v>1.492676967055172</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.34593965053342</v>
@@ -11328,7 +11220,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.608262896213408</v>
+        <v>1.496188659381081</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.401340146364017</v>
@@ -11417,7 +11309,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.611399675561256</v>
+        <v>1.490387271781248</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.621203554642524</v>
@@ -11506,7 +11398,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.631614001955858</v>
+        <v>1.497944357985998</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.186736333132727</v>
@@ -11595,7 +11487,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.622592518194547</v>
+        <v>1.487759245676533</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.836206050912907</v>
@@ -11881,7 +11773,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.763336313146268</v>
+        <v>1.666627297427766</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.722814710285563</v>
@@ -11970,7 +11862,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.759225576320927</v>
+        <v>1.665164674705365</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.76388538731784</v>
@@ -12059,7 +11951,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.765239243078495</v>
+        <v>1.669034804407563</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.372840745486822</v>
@@ -12148,7 +12040,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.7671637026984</v>
+        <v>1.678963823410208</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.546085152488421</v>
@@ -12237,7 +12129,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.759618186751863</v>
+        <v>1.67657985579663</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.280685524987378</v>
@@ -12326,7 +12218,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.761209736550799</v>
+        <v>1.679396727865816</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.593638928804522</v>
@@ -12415,7 +12307,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.754824201795158</v>
+        <v>1.674196163976349</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.584625425268533</v>
@@ -12504,7 +12396,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.75741232653046</v>
+        <v>1.671430704096809</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.393802812139595</v>
@@ -12593,7 +12485,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.757111996796393</v>
+        <v>1.665480937882722</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.126576831127363</v>
@@ -12682,7 +12574,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.762106913644498</v>
+        <v>1.668155879795199</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.351398701171955</v>
@@ -12771,7 +12663,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.765797805371548</v>
+        <v>1.670780371548333</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.42725877795218</v>
@@ -12860,7 +12752,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.766373911417587</v>
+        <v>1.674868989680228</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.314800147153172</v>
@@ -12949,7 +12841,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.766704302420082</v>
+        <v>1.672294775260327</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.022114924598559</v>
@@ -13038,7 +12930,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.772765546794271</v>
+        <v>1.686081078907473</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.920977076355304</v>
@@ -13127,7 +13019,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.784651273326874</v>
+        <v>1.713482154164667</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.161838520241718</v>
@@ -13216,7 +13108,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.799743462132062</v>
+        <v>1.724039253861601</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.763936623048175</v>
@@ -13305,7 +13197,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.802091292780271</v>
+        <v>1.726448029523004</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.608186178345716</v>
@@ -13394,7 +13286,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.804934417407789</v>
+        <v>1.725807077294867</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.837324373947116</v>
@@ -13483,7 +13375,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.805060814226869</v>
+        <v>1.730754800834873</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.261356029059261</v>
@@ -13572,7 +13464,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.814344849270488</v>
+        <v>1.730686133341236</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.027196022992666</v>
@@ -13661,7 +13553,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.816601801410436</v>
+        <v>1.725747030807032</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.798728021934115</v>
@@ -13750,7 +13642,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.817204169700666</v>
+        <v>1.726365324001596</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.681024269702692</v>
@@ -13839,7 +13731,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.810692012693911</v>
+        <v>1.710769923997265</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.122615610510143</v>
@@ -13928,7 +13820,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.805430996110651</v>
+        <v>1.700217220390208</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.091784868660285</v>
@@ -14017,7 +13909,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.801423478505749</v>
+        <v>1.694812816850763</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.783518914310413</v>
@@ -14106,7 +13998,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.801675511346867</v>
+        <v>1.69249460790541</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.749292147485898</v>
@@ -14195,7 +14087,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.79403086265085</v>
+        <v>1.677115490409629</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.024623420557808</v>
@@ -14284,7 +14176,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.785307299573928</v>
+        <v>1.669672381742941</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.86097903052192</v>
@@ -14373,7 +14265,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.787456370242986</v>
+        <v>1.673756070091307</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.083091570639303</v>
@@ -14462,7 +14354,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.787637231698352</v>
+        <v>1.680917793562655</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.925531753160211</v>
@@ -14551,7 +14443,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.790551278816314</v>
+        <v>1.691755411038061</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.119606251730763</v>
@@ -14640,7 +14532,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.78474381727409</v>
+        <v>1.678284425209589</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.641217793755155</v>
@@ -14729,7 +14621,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.783664967151242</v>
+        <v>1.6730474053873</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.436130940338987</v>
@@ -14818,7 +14710,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.780501630306811</v>
+        <v>1.665521458075043</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.16233459460384</v>
@@ -14907,7 +14799,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.783482166262326</v>
+        <v>1.67396083348201</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.461706464764848</v>
@@ -14996,7 +14888,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.786346511600295</v>
+        <v>1.681767842057785</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.587720107864794</v>
@@ -15085,7 +14977,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.791407510129792</v>
+        <v>1.675899579991933</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.972744353663671</v>
@@ -15174,7 +15066,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.796710962001788</v>
+        <v>1.689584408489477</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.940633377658425</v>
@@ -15263,7 +15155,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.805708080136766</v>
+        <v>1.709033556642304</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.09624592893216</v>
@@ -15352,7 +15244,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.807926708123508</v>
+        <v>1.713047377687261</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.597321348882301</v>
@@ -15441,7 +15333,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.8117483428404</v>
+        <v>1.71793716975418</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.353930012615267</v>
@@ -15530,7 +15422,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.8163982936297</v>
+        <v>1.726318956981801</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.72533726473342</v>
@@ -15619,7 +15511,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.80915543907085</v>
+        <v>1.721062142720361</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.200000774737988</v>
@@ -15708,7 +15600,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.7967542642392</v>
+        <v>1.716551171607653</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.216212409573731</v>
@@ -15797,7 +15689,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.770949255800531</v>
+        <v>1.697747736157311</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.232667743678664</v>
@@ -15886,7 +15778,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.766494744781949</v>
+        <v>1.683003331512303</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.216462477503373</v>
@@ -15975,7 +15867,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.770391403017489</v>
+        <v>1.693423668383284</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.03636445616387</v>
@@ -16064,7 +15956,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.768435238520043</v>
+        <v>1.699018176580801</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.168161704666119</v>
@@ -16153,7 +16045,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.764802586654459</v>
+        <v>1.697523644707984</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.223734824387137</v>
@@ -16242,7 +16134,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.762075206128091</v>
+        <v>1.687784075729934</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.153451842371068</v>
@@ -16331,7 +16223,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.764105649754189</v>
+        <v>1.688821688467699</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.153777826552554</v>
@@ -16420,7 +16312,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.763017888164363</v>
+        <v>1.695951268460003</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.128267770230098</v>
@@ -16509,7 +16401,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.759699251674093</v>
+        <v>1.686138562063419</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.158856810598677</v>
@@ -16598,7 +16490,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.757798614407025</v>
+        <v>1.682462855368346</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.190183762963164</v>
@@ -16687,7 +16579,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.754472486068109</v>
+        <v>1.673449971033378</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.028601712274787</v>
@@ -16776,7 +16668,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.751376504113604</v>
+        <v>1.662172644684613</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.107370658396404</v>
@@ -16865,7 +16757,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.754478974686007</v>
+        <v>1.661338044921967</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.958480671322389</v>
@@ -16954,7 +16846,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.757625091763757</v>
+        <v>1.662035191865356</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.112218359973617</v>
@@ -17043,7 +16935,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.780483038065193</v>
+        <v>1.663669707903462</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.717505090229195</v>
@@ -17132,7 +17024,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.789354761104807</v>
+        <v>1.6652032065518</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.10960430565991</v>
@@ -17221,7 +17113,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.784358811379138</v>
+        <v>1.661382208501595</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.632803839969128</v>
@@ -17507,7 +17399,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.760503977447315</v>
+        <v>1.640501185945264</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.479890638579471</v>
@@ -17596,7 +17488,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.754878807096471</v>
+        <v>1.637041222715763</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.557871467778762</v>
@@ -17685,7 +17577,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.752408322224281</v>
+        <v>1.636661783917082</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.341385532023668</v>
@@ -17774,7 +17666,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.746630112471395</v>
+        <v>1.636369157315261</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.661247549756389</v>
@@ -17863,7 +17755,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.735021133650812</v>
+        <v>1.61883920337948</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.218250809619244</v>
@@ -17952,7 +17844,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.718040387250108</v>
+        <v>1.604590183993336</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.55862291681746</v>
@@ -18041,7 +17933,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.717366355073855</v>
+        <v>1.596751592435114</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.097892743617916</v>
@@ -18130,7 +18022,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.703265574010438</v>
+        <v>1.576240938911145</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.64915818394893</v>
@@ -18219,7 +18111,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.693156553162623</v>
+        <v>1.562236444919184</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.427648436769543</v>
@@ -18308,7 +18200,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.676579811534505</v>
+        <v>1.54207105778228</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.262058933612434</v>
@@ -18397,7 +18289,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.669213943829981</v>
+        <v>1.538177218519996</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.514628942879282</v>
@@ -18486,7 +18378,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.669562753492716</v>
+        <v>1.535750303645944</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.5272899043649</v>
@@ -18575,7 +18467,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.669517125008361</v>
+        <v>1.53745285778786</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.686648578615709</v>
@@ -18664,7 +18556,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.665088939446114</v>
+        <v>1.55306488896655</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.599867294290845</v>
@@ -18753,7 +18645,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.677929355860383</v>
+        <v>1.580173755050443</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.582111005599618</v>
@@ -18842,7 +18734,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.68181108744345</v>
+        <v>1.574300643980659</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.468439989010797</v>
@@ -18931,7 +18823,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.6768051211499</v>
+        <v>1.563491986022662</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.440383844139863</v>
@@ -19020,7 +18912,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.677523744750046</v>
+        <v>1.571251911211204</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.613797404993485</v>
@@ -19109,7 +19001,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.680474412678068</v>
+        <v>1.570673212800671</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.762540619269366</v>
@@ -19198,7 +19090,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.689456774642776</v>
+        <v>1.579322693372621</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.501756844489296</v>
@@ -19287,7 +19179,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.690803291446868</v>
+        <v>1.586008815111741</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.821819524580958</v>
@@ -19376,7 +19268,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.688814703820271</v>
+        <v>1.586551241333876</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.887730630804988</v>
@@ -19465,7 +19357,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.690293374198097</v>
+        <v>1.595424356168378</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.769510553686466</v>
@@ -19554,7 +19446,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.700128897272009</v>
+        <v>1.60329488604869</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.017482661750965</v>
@@ -19643,7 +19535,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.701433105599228</v>
+        <v>1.606862433525223</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.602462014094503</v>
@@ -19732,7 +19624,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.710204518423014</v>
+        <v>1.607621193698999</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.208952612775162</v>
@@ -19821,7 +19713,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.703499701865155</v>
+        <v>1.601488667492168</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.323806916129398</v>
@@ -19910,7 +19802,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.700368630477453</v>
+        <v>1.597761889385616</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.843786590778016</v>
@@ -19999,7 +19891,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.709557885554746</v>
+        <v>1.596587253592336</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.008018065699219</v>
@@ -20088,7 +19980,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.69610404367383</v>
+        <v>1.585725348408699</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.594666600624787</v>
@@ -20177,7 +20069,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.706383221292609</v>
+        <v>1.600146754128641</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.052648178672081</v>
@@ -20266,7 +20158,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.710327873632268</v>
+        <v>1.610252548972132</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.686230147852843</v>
@@ -20355,7 +20247,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.703136201100989</v>
+        <v>1.593639198288634</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.924506635469029</v>
@@ -20444,7 +20336,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.69997284756135</v>
+        <v>1.586567944158989</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.623338084137555</v>
@@ -20533,7 +20425,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.702565152822497</v>
+        <v>1.588305920246631</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.544181031177129</v>
@@ -20622,7 +20514,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.700527350370857</v>
+        <v>1.582708808885298</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.817978641452623</v>
@@ -20711,7 +20603,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.712482373274174</v>
+        <v>1.596600877914259</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.574619512424375</v>
@@ -20800,7 +20692,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.714322006066295</v>
+        <v>1.592398075101271</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.840452098979174</v>
@@ -20889,7 +20781,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.705014798362989</v>
+        <v>1.586397177503996</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.449474376740925</v>
@@ -20978,7 +20870,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.694427744595039</v>
+        <v>1.580100366438974</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.4431077866451</v>
@@ -21067,7 +20959,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.690771778429279</v>
+        <v>1.585712029380195</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.670836995994394</v>
@@ -21156,7 +21048,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.696140714433215</v>
+        <v>1.593681605097554</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.449873483355347</v>
@@ -21245,7 +21137,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.690007158917963</v>
+        <v>1.593886364010112</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.467602621989343</v>
@@ -21334,7 +21226,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.704329731957124</v>
+        <v>1.619451336051357</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.554812318889277</v>
@@ -21423,7 +21315,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.70825558134875</v>
+        <v>1.625466492838822</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.386874855660798</v>
@@ -21512,7 +21404,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.705049437957772</v>
+        <v>1.620417813628572</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.271068085199861</v>
@@ -21601,7 +21493,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.69967151078081</v>
+        <v>1.60695176791225</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.328765146802792</v>
@@ -21690,7 +21582,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.700321043373051</v>
+        <v>1.600858263188875</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.950535855386847</v>
@@ -21779,7 +21671,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.700250975507518</v>
+        <v>1.604266031825496</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.353408825491053</v>
@@ -21868,7 +21760,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.70335411418861</v>
+        <v>1.602456606485574</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.970505122634628</v>
@@ -21957,7 +21849,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.706545178114819</v>
+        <v>1.605342050674173</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.042542295546938</v>
@@ -22046,7 +21938,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.692384246954123</v>
+        <v>1.592973218814538</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.245436180344616</v>
@@ -22135,7 +22027,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.693179220795454</v>
+        <v>1.596296485836085</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.386003838477515</v>
@@ -22224,7 +22116,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.693730449652628</v>
+        <v>1.597494441978074</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.212990881627345</v>
@@ -22313,7 +22205,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.705478337017761</v>
+        <v>1.601167897955218</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.382832519037991</v>
@@ -22402,7 +22294,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.703387075749426</v>
+        <v>1.586214265427824</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.078933796367585</v>
@@ -22491,7 +22383,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.701294795880912</v>
+        <v>1.582012847075571</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.825050653372325</v>
@@ -22580,7 +22472,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.701142363622254</v>
+        <v>1.579327006044113</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.970734085844745</v>
@@ -22669,7 +22561,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.685062706974033</v>
+        <v>1.553585135284738</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.999990533439717</v>
@@ -22758,7 +22650,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.686941363992039</v>
+        <v>1.54785185727843</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.54812707757006</v>
@@ -22847,7 +22739,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.689859217595049</v>
+        <v>1.55649869755067</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.185232582086552</v>
@@ -23133,7 +23025,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.831347976617702</v>
+        <v>1.732375368644848</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.764331763760587</v>
@@ -23222,7 +23114,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.82628566622613</v>
+        <v>1.732367141939997</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.086428462454901</v>
@@ -23311,7 +23203,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.830183731482373</v>
+        <v>1.738751347831313</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.734361659199514</v>
@@ -23400,7 +23292,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.823734800865103</v>
+        <v>1.733880522672752</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.765484425108839</v>
@@ -23489,7 +23381,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.809814843402207</v>
+        <v>1.713082676240656</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.94603965407406</v>
@@ -23578,7 +23470,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.799919149042324</v>
+        <v>1.706341704031954</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.621710542258729</v>
@@ -23667,7 +23559,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.799562590732931</v>
+        <v>1.706049590561571</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.252361458090625</v>
@@ -23756,7 +23648,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.780718090384263</v>
+        <v>1.680197313721346</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.699089371761</v>
@@ -23845,7 +23737,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.773323854989809</v>
+        <v>1.67115530801234</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.405130040853825</v>
@@ -23934,7 +23826,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.772677433273876</v>
+        <v>1.665117752812407</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.069477976402476</v>
@@ -24023,7 +23915,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.773390529706801</v>
+        <v>1.671148689754145</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.305259282183236</v>
@@ -24112,7 +24004,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.775351786368998</v>
+        <v>1.675587781199253</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.872610482261085</v>
@@ -24201,7 +24093,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.773865833915699</v>
+        <v>1.674715177334458</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.018066041525852</v>
@@ -24290,7 +24182,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.776238216580111</v>
+        <v>1.67935629126584</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.218749698093922</v>
@@ -24379,7 +24271,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.781973557428163</v>
+        <v>1.684561041703427</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.762467721193685</v>
@@ -24468,7 +24360,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.782452415745103</v>
+        <v>1.668740461613058</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.632141213599616</v>
@@ -24557,7 +24449,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.771481953782176</v>
+        <v>1.654942355168853</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.654353779917958</v>
@@ -24646,7 +24538,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.762870969717643</v>
+        <v>1.640092142933411</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.447475883383309</v>
@@ -24735,7 +24627,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.758060306801997</v>
+        <v>1.635410174065595</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.311350475037093</v>
@@ -24824,7 +24716,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.753572079862927</v>
+        <v>1.63622798544433</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.453349391031841</v>
@@ -24913,7 +24805,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.755693103888351</v>
+        <v>1.630183707487075</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.857852594161359</v>
@@ -25002,7 +24894,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.754924724014679</v>
+        <v>1.613313479810497</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.564001173561774</v>
@@ -25091,7 +24983,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.752872051695873</v>
+        <v>1.612374285656659</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.003901187801548</v>
@@ -25180,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.749748148185548</v>
+        <v>1.60018727606961</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.057064773741778</v>
@@ -25269,7 +25161,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.749068631380567</v>
+        <v>1.594547199951657</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.808939532278063</v>
@@ -25358,7 +25250,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.747358109901801</v>
+        <v>1.594125642634348</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.911900167837148</v>
@@ -25447,7 +25339,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.746875696320655</v>
+        <v>1.588939051462386</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.731334850374363</v>
@@ -25536,7 +25428,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.741150378787978</v>
+        <v>1.581699044427756</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.977336685492269</v>
@@ -25625,7 +25517,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.731429380947689</v>
+        <v>1.57270337054274</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.337798984551225</v>
@@ -25714,7 +25606,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.727151192582799</v>
+        <v>1.576748166341433</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.559235079636185</v>
@@ -25803,7 +25695,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.72827467530011</v>
+        <v>1.591681666635214</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.605463335759878</v>
@@ -25892,7 +25784,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.730001586153078</v>
+        <v>1.591122989976972</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.855153372007467</v>
@@ -25981,7 +25873,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.725569453295737</v>
+        <v>1.577587283602416</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.651186077260208</v>
@@ -26070,7 +25962,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.723013597684842</v>
+        <v>1.572242935968728</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.238645745456616</v>
@@ -26159,7 +26051,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.731145533201694</v>
+        <v>1.582538568154397</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.992654041108398</v>
@@ -26248,7 +26140,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.721926065229866</v>
+        <v>1.579450432047099</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.377393919961319</v>
@@ -26337,7 +26229,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.727886749419876</v>
+        <v>1.599444520205898</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.759842558986353</v>
@@ -26426,7 +26318,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.73411480003215</v>
+        <v>1.604359527979309</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.650889222370641</v>
@@ -26515,7 +26407,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.738120773131116</v>
+        <v>1.615261025358619</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.811379644374679</v>
@@ -26604,7 +26496,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.73157795939891</v>
+        <v>1.615273420633254</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.772823896002286</v>
@@ -26693,7 +26585,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.727102619137516</v>
+        <v>1.607144300006254</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.918413672628517</v>
@@ -26782,7 +26674,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.726983846040838</v>
+        <v>1.607190634182995</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.661553276183864</v>
@@ -26871,7 +26763,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.740753697426269</v>
+        <v>1.624753932887148</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.274453195605869</v>
@@ -26960,7 +26852,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.764241189418246</v>
+        <v>1.649776446606815</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.058297235143452</v>
@@ -27049,7 +26941,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.760948974567743</v>
+        <v>1.639114235461618</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.297108017132786</v>
@@ -27138,7 +27030,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.75730025317739</v>
+        <v>1.632271609373351</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.491699367510009</v>
@@ -27227,7 +27119,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.759578014538905</v>
+        <v>1.639002855018734</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.212080799481389</v>
@@ -27316,7 +27208,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.774924189967299</v>
+        <v>1.664653739355901</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.18661372828479</v>
@@ -27405,7 +27297,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.7824144088672</v>
+        <v>1.67548093023678</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.254929911269721</v>
@@ -27494,7 +27386,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.778055009982159</v>
+        <v>1.668874968461012</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.213537092425458</v>
@@ -27583,7 +27475,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.788577880541876</v>
+        <v>1.680563620549882</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.320826509880055</v>
@@ -27672,7 +27564,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.786963080193239</v>
+        <v>1.678054781232622</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.476987103427324</v>
@@ -27761,7 +27653,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.785917211425919</v>
+        <v>1.675252740749757</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.306002766523044</v>
@@ -27850,7 +27742,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.778993345538182</v>
+        <v>1.664529098007583</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.260044006578131</v>
@@ -27939,7 +27831,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.78132967285368</v>
+        <v>1.655470447469404</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.321076139658715</v>
@@ -28028,7 +27920,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.778094826263593</v>
+        <v>1.647234626784973</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.54234168061569</v>
@@ -28117,7 +28009,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.772072437462777</v>
+        <v>1.643780520158898</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.214189728019623</v>
@@ -28206,7 +28098,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.760699700181351</v>
+        <v>1.633509129059098</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.226794833142016</v>
@@ -28295,7 +28187,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.744117995372281</v>
+        <v>1.609175809768006</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.900308724302094</v>
@@ -28384,7 +28276,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.746750093856406</v>
+        <v>1.605984119428517</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.087256580549656</v>
@@ -28473,7 +28365,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.753159526249142</v>
+        <v>1.613287493811848</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.209739574285749</v>
@@ -28759,7 +28651,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.683989264651986</v>
+        <v>1.652723730470295</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.974659880532969</v>
@@ -28848,7 +28740,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.680749942804673</v>
+        <v>1.658064211266382</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.15620383014225</v>
@@ -28937,7 +28829,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.695964346091896</v>
+        <v>1.672224506118489</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.171582290362915</v>
@@ -29026,7 +28918,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.700037775520867</v>
+        <v>1.67298848162531</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.116400850399755</v>
@@ -29115,7 +29007,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.695217904922748</v>
+        <v>1.662988842840042</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.140013363836374</v>
@@ -29204,7 +29096,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.673673452816064</v>
+        <v>1.632413899983593</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.008993127070877</v>
@@ -29293,7 +29185,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.677489368672424</v>
+        <v>1.6312973012706</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.254546496018375</v>
@@ -29382,7 +29274,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.676562735319575</v>
+        <v>1.630378293556317</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.354189354571558</v>
@@ -29471,7 +29363,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.679458192521865</v>
+        <v>1.6309721256973</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.309546003373728</v>
@@ -29560,7 +29452,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.674798042142887</v>
+        <v>1.62547641874052</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.325466475896239</v>
@@ -29649,7 +29541,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.683105967149145</v>
+        <v>1.627366519452935</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.588313098919333</v>
@@ -29738,7 +29630,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.693081244439357</v>
+        <v>1.637645176455431</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.562230081011449</v>
@@ -29827,7 +29719,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.69402887882451</v>
+        <v>1.63385592159095</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.158097983060852</v>
@@ -29916,7 +29808,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.68758409999225</v>
+        <v>1.635083619638007</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.645265085949677</v>
@@ -30005,7 +29897,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.704133990403516</v>
+        <v>1.651891593056239</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.512506842282991</v>
@@ -30094,7 +29986,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.720342679799354</v>
+        <v>1.66828392625023</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.57217580135725</v>
@@ -30183,7 +30075,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.717082844567983</v>
+        <v>1.662909013184389</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.068007565579508</v>
@@ -30272,7 +30164,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.73123536127141</v>
+        <v>1.675967347153551</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.141366917471376</v>
@@ -30361,7 +30253,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.738723152023355</v>
+        <v>1.686498338324307</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.273677228388156</v>
@@ -30450,7 +30342,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.741255747733138</v>
+        <v>1.693240017163085</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.529548809006941</v>
@@ -30539,7 +30431,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.744863707334927</v>
+        <v>1.695865052263382</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.500743876323735</v>
@@ -30628,7 +30520,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.734915373317907</v>
+        <v>1.686314752296898</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.164300608673658</v>
@@ -30717,7 +30609,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.734303841984529</v>
+        <v>1.688014364156347</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.513922760375434</v>
@@ -30806,7 +30698,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.738158449026132</v>
+        <v>1.691068177840664</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.998619867884411</v>
@@ -30895,7 +30787,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.738567939257057</v>
+        <v>1.687810314232358</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.556891323457285</v>
@@ -30984,7 +30876,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.742936418888702</v>
+        <v>1.689373131540258</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.737215389330848</v>
@@ -31073,7 +30965,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.732490110821338</v>
+        <v>1.677346170422382</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.184392476364525</v>
@@ -31162,7 +31054,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.740944445693789</v>
+        <v>1.684447252725965</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.742217426558787</v>
@@ -31251,7 +31143,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.756524178511549</v>
+        <v>1.695210137095173</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.541124930889697</v>
@@ -31340,7 +31232,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.753379707738327</v>
+        <v>1.701462463038355</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.623717100559893</v>
@@ -31429,7 +31321,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.753682216254537</v>
+        <v>1.701190117488424</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.583528374667868</v>
@@ -31518,7 +31410,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.738302695427683</v>
+        <v>1.680699385031723</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.616300014171891</v>
@@ -31607,7 +31499,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.739647921117265</v>
+        <v>1.674690589510521</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.013805826006299</v>
@@ -31696,7 +31588,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.745320246509312</v>
+        <v>1.67838457973939</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.35598366492704</v>
@@ -31785,7 +31677,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.740031745334552</v>
+        <v>1.674006053645833</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.276466471631546</v>
@@ -31874,7 +31766,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.745075458374126</v>
+        <v>1.674298905068729</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.080190900082052</v>
@@ -31963,7 +31855,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.75229483786064</v>
+        <v>1.677118571264109</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.417561484952415</v>
@@ -32052,7 +31944,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.747279570198761</v>
+        <v>1.666672481548215</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.206509746245608</v>
@@ -32141,7 +32033,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.746900274843889</v>
+        <v>1.660432484386847</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.949012178026751</v>
@@ -32230,7 +32122,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.751074980959397</v>
+        <v>1.666163646846465</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.51112567248142</v>
@@ -32319,7 +32211,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.759569319678209</v>
+        <v>1.67517431498141</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.500896919508108</v>
@@ -32408,7 +32300,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.756342277671453</v>
+        <v>1.678809826685645</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.343857228102755</v>
@@ -32497,7 +32389,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.735190015044406</v>
+        <v>1.661767342324614</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.028879568561456</v>
@@ -32586,7 +32478,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.698505613051943</v>
+        <v>1.645168584878143</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.565636623809682</v>
@@ -32675,7 +32567,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.68698767191125</v>
+        <v>1.630002705869694</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.612599752255409</v>
@@ -32764,7 +32656,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.686210668329795</v>
+        <v>1.634439459827097</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.732825603692049</v>
@@ -32853,7 +32745,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.700390363238281</v>
+        <v>1.651090610213931</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.649199783285271</v>
@@ -32942,7 +32834,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.694986241298306</v>
+        <v>1.646595275727765</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.676067993032782</v>
@@ -33031,7 +32923,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.690228388491021</v>
+        <v>1.640323598044925</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.595986160124364</v>
@@ -33120,7 +33012,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.693967463395039</v>
+        <v>1.637405756424118</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.564304958465817</v>
@@ -33209,7 +33101,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.696606178311491</v>
+        <v>1.642556000565377</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.54998759275316</v>
@@ -33298,7 +33190,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.69822123143237</v>
+        <v>1.649176975462364</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.634847228536715</v>
@@ -33387,7 +33279,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.697522340373963</v>
+        <v>1.651895521798057</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.489980065863052</v>
@@ -33476,7 +33368,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.695541477006488</v>
+        <v>1.652548173880062</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.675399211058443</v>
@@ -33565,7 +33457,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.684258785311065</v>
+        <v>1.63352087473114</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.626097577157131</v>
@@ -33654,7 +33546,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.676797338478214</v>
+        <v>1.618510277018301</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.646911352942924</v>
@@ -33743,7 +33635,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.67834465355973</v>
+        <v>1.617452095588103</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.58702653054142</v>
@@ -33832,7 +33724,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.699995281322019</v>
+        <v>1.628525695968287</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.728549323129271</v>
@@ -33921,7 +33813,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.731918041729001</v>
+        <v>1.64060190385667</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.25962032284772</v>
@@ -34010,7 +33902,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.753420493658545</v>
+        <v>1.659567279819711</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.929145486074019</v>
@@ -34099,7 +33991,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.750498961612954</v>
+        <v>1.643756549674435</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.686294345216596</v>
@@ -34385,7 +34277,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.616040929547323</v>
+        <v>1.57484134344907</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.111424318139492</v>
@@ -34474,7 +34366,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.616423572145209</v>
+        <v>1.57518709898247</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.140546769250302</v>
@@ -34563,7 +34455,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.629743722646306</v>
+        <v>1.584990320402798</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.119772106335966</v>
@@ -34652,7 +34544,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.620043223087301</v>
+        <v>1.573889450095209</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.791647495218996</v>
@@ -34741,7 +34633,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.621044068801848</v>
+        <v>1.566542117631365</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.987411297517908</v>
@@ -34830,7 +34722,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.597919823398299</v>
+        <v>1.544332929809456</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.773145539075361</v>
@@ -34919,7 +34811,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.614559720925637</v>
+        <v>1.554418268888167</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.861263770253325</v>
@@ -35008,7 +34900,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.605387511832453</v>
+        <v>1.548666347572469</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.100258695134481</v>
@@ -35097,7 +34989,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.593161999316741</v>
+        <v>1.533822875564733</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.828937976534265</v>
@@ -35186,7 +35078,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.57863400180721</v>
+        <v>1.520785898574714</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.944871926517846</v>
@@ -35275,7 +35167,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.576163945241132</v>
+        <v>1.522966517457732</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.908451910138691</v>
@@ -35364,7 +35256,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.580486219392102</v>
+        <v>1.523956934050305</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.74306696324425</v>
@@ -35453,7 +35345,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.587762229331229</v>
+        <v>1.53093426396803</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.116799885671506</v>
@@ -35542,7 +35434,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.584825366223834</v>
+        <v>1.530212824679734</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.019357367100365</v>
@@ -35631,7 +35523,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.588523281476796</v>
+        <v>1.520680397068884</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.051112384938415</v>
@@ -35720,7 +35612,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.600286024411614</v>
+        <v>1.513192519734047</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.943891793177473</v>
@@ -35809,7 +35701,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.593915446393083</v>
+        <v>1.500405410965836</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.685230861589977</v>
@@ -35898,7 +35790,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.597789465240481</v>
+        <v>1.502846267383782</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.656743238729921</v>
@@ -35987,7 +35879,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.613582722267512</v>
+        <v>1.514122661586266</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.946056001524622</v>
@@ -36076,7 +35968,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.614863879388869</v>
+        <v>1.517885870244039</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.726783697214395</v>
@@ -36165,7 +36057,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.629925254402451</v>
+        <v>1.52893688334799</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.947208809692433</v>
@@ -36254,7 +36146,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.624169973334679</v>
+        <v>1.521076512146152</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.669353292111428</v>
@@ -36343,7 +36235,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.617656701863142</v>
+        <v>1.515272451527857</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.989673001996709</v>
@@ -36432,7 +36324,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.640503613940196</v>
+        <v>1.527517429602429</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.692785551186462</v>
@@ -36521,7 +36413,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.642832672104389</v>
+        <v>1.520711730456724</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.937485539608827</v>
@@ -36610,7 +36502,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.6486333502366</v>
+        <v>1.524656930158469</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.104212743702192</v>
@@ -36699,7 +36591,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.645643785445325</v>
+        <v>1.519073699231946</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.758631458600159</v>
@@ -36788,7 +36680,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.628513482509599</v>
+        <v>1.499862932366009</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.969357733871532</v>
@@ -36877,7 +36769,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.644582357129189</v>
+        <v>1.510721554274119</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.21355301319132</v>
@@ -36966,7 +36858,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.626140363916113</v>
+        <v>1.50700471595378</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.314250101960815</v>
@@ -37055,7 +36947,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.626513800041272</v>
+        <v>1.520704462891901</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.94015269174952</v>
@@ -37144,7 +37036,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.619340143608489</v>
+        <v>1.51452401212865</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.087186173047949</v>
@@ -37233,7 +37125,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.618895138105989</v>
+        <v>1.502257128467073</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.076722159278205</v>
@@ -37322,7 +37214,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.615845495124502</v>
+        <v>1.500826124533616</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.311910307356121</v>
@@ -37411,7 +37303,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.615310752919591</v>
+        <v>1.499854579183585</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.896661688736747</v>
@@ -37500,7 +37392,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.611413932588756</v>
+        <v>1.492263081855907</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.021046211293036</v>
@@ -37589,7 +37481,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.6206582028851</v>
+        <v>1.497235716961846</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.39686622590827</v>
@@ -37678,7 +37570,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.614776269265259</v>
+        <v>1.483587982977616</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.977118101646992</v>
@@ -37767,7 +37659,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.618772444972486</v>
+        <v>1.483232945688622</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.000909290962765</v>
@@ -37856,7 +37748,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.619931146871962</v>
+        <v>1.486787643020522</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.108945959111484</v>
@@ -37945,7 +37837,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.619457064641974</v>
+        <v>1.48526827349031</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.242415685963246</v>
@@ -38034,7 +37926,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.603513130649635</v>
+        <v>1.476165965911036</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.846343510097564</v>
@@ -38123,7 +38015,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.603007449463627</v>
+        <v>1.482003809552248</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.917098713087728</v>
@@ -38212,7 +38104,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.605654194529436</v>
+        <v>1.494910875666063</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.126856950185001</v>
@@ -38301,7 +38193,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.604870628232284</v>
+        <v>1.488066894957073</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.903893855963315</v>
@@ -38390,7 +38282,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.608797509303241</v>
+        <v>1.49111316428315</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.74029172240106</v>
@@ -38479,7 +38371,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.601934862493138</v>
+        <v>1.490431593521457</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.661009088412184</v>
@@ -38568,7 +38460,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.606404397282881</v>
+        <v>1.497882900307208</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.846447005142247</v>
@@ -38657,7 +38549,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.605884351143259</v>
+        <v>1.500571052830598</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.665950988721665</v>
@@ -38746,7 +38638,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.607145607738754</v>
+        <v>1.493625672877905</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.621303553254565</v>
@@ -38835,7 +38727,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.611112834260153</v>
+        <v>1.503647221113178</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.793790898201698</v>
@@ -38924,7 +38816,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.604739281266787</v>
+        <v>1.50439706400082</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.864365640989271</v>
@@ -39013,7 +38905,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.606920948977518</v>
+        <v>1.51884559643624</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.912267918523724</v>
@@ -39102,7 +38994,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.600345358659393</v>
+        <v>1.521652336234069</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.654744319618282</v>
@@ -39191,7 +39083,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.605562115939682</v>
+        <v>1.52091397556712</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.588493083098376</v>
@@ -39280,7 +39172,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.600266368617427</v>
+        <v>1.505648328355728</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.548447599795406</v>
@@ -39369,7 +39261,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.613350583269443</v>
+        <v>1.510369920576826</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.476128239504744</v>
@@ -39458,7 +39350,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.617912095681894</v>
+        <v>1.509497867830525</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.434611959764647</v>
@@ -39547,7 +39439,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.605134035122497</v>
+        <v>1.491984135859346</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.830784061754878</v>
@@ -39636,7 +39528,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.618917237355041</v>
+        <v>1.503395132058412</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.083294623440552</v>
@@ -39725,7 +39617,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.609942830877992</v>
+        <v>1.493297310781623</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.11949972016129</v>
